--- a/Proyecto/data_output/resultados_simulacion_montecarlo_fecha.xlsx
+++ b/Proyecto/data_output/resultados_simulacion_montecarlo_fecha.xlsx
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0687</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>2017</v>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0494</v>
+        <v>0.0475</v>
       </c>
       <c r="C4" t="n">
         <v>2017</v>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0742</v>
+        <v>0.0766</v>
       </c>
       <c r="C5" t="n">
         <v>2017</v>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0926</v>
+        <v>0.0882</v>
       </c>
       <c r="C6" t="n">
         <v>2017</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1054</v>
+        <v>0.1074</v>
       </c>
       <c r="C7" t="n">
         <v>2017</v>
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1034</v>
+        <v>0.1002</v>
       </c>
       <c r="C8" t="n">
         <v>2017</v>
@@ -532,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0919</v>
+        <v>0.0979</v>
       </c>
       <c r="C9" t="n">
         <v>2017</v>
@@ -543,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1023</v>
+        <v>0.1036</v>
       </c>
       <c r="C10" t="n">
         <v>2017</v>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09569999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="C11" t="n">
         <v>2017</v>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0726</v>
+        <v>0.0762</v>
       </c>
       <c r="C12" t="n">
         <v>2017</v>
@@ -576,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0638</v>
+        <v>0.0634</v>
       </c>
       <c r="C13" t="n">
         <v>2017</v>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08</v>
+        <v>0.0788</v>
       </c>
       <c r="C14" t="n">
         <v>2017</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0847</v>
+        <v>0.0843</v>
       </c>
       <c r="C15" t="n">
         <v>2018</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0654</v>
+        <v>0.0682</v>
       </c>
       <c r="C16" t="n">
         <v>2018</v>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0472</v>
+        <v>0.0467</v>
       </c>
       <c r="C17" t="n">
         <v>2018</v>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1139</v>
+        <v>0.1112</v>
       </c>
       <c r="C18" t="n">
         <v>2018</v>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1198</v>
+        <v>0.121</v>
       </c>
       <c r="C19" t="n">
         <v>2018</v>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1131</v>
+        <v>0.1101</v>
       </c>
       <c r="C20" t="n">
         <v>2018</v>
@@ -664,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0954</v>
+        <v>0.0901</v>
       </c>
       <c r="C21" t="n">
         <v>2018</v>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0915</v>
+        <v>0.0956</v>
       </c>
       <c r="C22" t="n">
         <v>2018</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0818</v>
+        <v>0.0843</v>
       </c>
       <c r="C23" t="n">
         <v>2018</v>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0684</v>
+        <v>0.0672</v>
       </c>
       <c r="C24" t="n">
         <v>2018</v>
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0507</v>
+        <v>0.0494</v>
       </c>
       <c r="C26" t="n">
         <v>2018</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0916</v>
+        <v>0.0858</v>
       </c>
       <c r="C27" t="n">
         <v>2019</v>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0584</v>
+        <v>0.0577</v>
       </c>
       <c r="C28" t="n">
         <v>2019</v>
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>2019</v>
@@ -763,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0964</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>2019</v>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1024</v>
+        <v>0.1074</v>
       </c>
       <c r="C31" t="n">
         <v>2019</v>
@@ -785,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1011</v>
+        <v>0.0997</v>
       </c>
       <c r="C32" t="n">
         <v>2019</v>
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07679999999999999</v>
+        <v>0.0717</v>
       </c>
       <c r="C33" t="n">
         <v>2019</v>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0871</v>
+        <v>0.0948</v>
       </c>
       <c r="C34" t="n">
         <v>2019</v>
@@ -818,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.0838</v>
       </c>
       <c r="C35" t="n">
         <v>2019</v>
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="C36" t="n">
         <v>2019</v>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>2019</v>
@@ -851,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0596</v>
+        <v>0.0578</v>
       </c>
       <c r="C38" t="n">
         <v>2019</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>0.079</v>
+        <v>0.0805</v>
       </c>
       <c r="C39" t="n">
         <v>2020</v>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0644</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0688</v>
+        <v>0.064</v>
       </c>
       <c r="C41" t="n">
         <v>2020</v>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1169</v>
+        <v>0.1165</v>
       </c>
       <c r="C42" t="n">
         <v>2020</v>
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1028</v>
+        <v>0.1007</v>
       </c>
       <c r="C43" t="n">
         <v>2020</v>
@@ -917,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1203</v>
+        <v>0.1259</v>
       </c>
       <c r="C44" t="n">
         <v>2020</v>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0702</v>
+        <v>0.0755</v>
       </c>
       <c r="C45" t="n">
         <v>2020</v>
@@ -939,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0643</v>
+        <v>0.0663</v>
       </c>
       <c r="C46" t="n">
         <v>2020</v>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0977</v>
+        <v>0.09</v>
       </c>
       <c r="C48" t="n">
         <v>2020</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0832</v>
+        <v>0.0786</v>
       </c>
       <c r="C49" t="n">
         <v>2020</v>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0507</v>
+        <v>0.0538</v>
       </c>
       <c r="C50" t="n">
         <v>2020</v>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0653</v>
+        <v>0.0693</v>
       </c>
       <c r="C51" t="n">
         <v>2021</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0564</v>
+        <v>0.0555</v>
       </c>
       <c r="C52" t="n">
         <v>2021</v>
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0992</v>
+        <v>0.1024</v>
       </c>
       <c r="C53" t="n">
         <v>2021</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.0914</v>
       </c>
       <c r="C54" t="n">
         <v>2021</v>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0861</v>
+        <v>0.0838</v>
       </c>
       <c r="C55" t="n">
         <v>2021</v>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="C56" t="n">
         <v>2021</v>
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0892</v>
+        <v>0.0897</v>
       </c>
       <c r="C57" t="n">
         <v>2021</v>
@@ -1071,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0767</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="C58" t="n">
         <v>2021</v>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0965</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>2021</v>
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0704</v>
+        <v>0.067</v>
       </c>
       <c r="C60" t="n">
         <v>2021</v>
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1011</v>
+        <v>0.0982</v>
       </c>
       <c r="C61" t="n">
         <v>2021</v>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0755</v>
+        <v>0.0772</v>
       </c>
       <c r="C62" t="n">
         <v>2021</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0558</v>
+        <v>0.0535</v>
       </c>
       <c r="C63" t="n">
         <v>2022</v>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>0.057</v>
+        <v>0.0539</v>
       </c>
       <c r="C64" t="n">
         <v>2022</v>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0892</v>
+        <v>0.0882</v>
       </c>
       <c r="C65" t="n">
         <v>2022</v>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0898</v>
+        <v>0.0921</v>
       </c>
       <c r="C66" t="n">
         <v>2022</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1078</v>
+        <v>0.1114</v>
       </c>
       <c r="C67" t="n">
         <v>2022</v>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1153</v>
+        <v>0.1083</v>
       </c>
       <c r="C68" t="n">
         <v>2022</v>
@@ -1192,7 +1192,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0838</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>2022</v>
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1036</v>
+        <v>0.1072</v>
       </c>
       <c r="C70" t="n">
         <v>2022</v>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0759</v>
+        <v>0.0814</v>
       </c>
       <c r="C71" t="n">
         <v>2022</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0949</v>
+        <v>0.0953</v>
       </c>
       <c r="C72" t="n">
         <v>2022</v>
@@ -1236,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0663</v>
+        <v>0.068</v>
       </c>
       <c r="C73" t="n">
         <v>2022</v>
@@ -1247,7 +1247,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0606</v>
+        <v>0.059</v>
       </c>
       <c r="C74" t="n">
         <v>2022</v>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0814</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="C75" t="n">
         <v>2023</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0629</v>
       </c>
       <c r="C76" t="n">
         <v>2023</v>
@@ -1280,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0999</v>
+        <v>0.1002</v>
       </c>
       <c r="C77" t="n">
         <v>2023</v>
@@ -1291,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0746</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>2023</v>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1117</v>
+        <v>0.1063</v>
       </c>
       <c r="C79" t="n">
         <v>2023</v>
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1041</v>
+        <v>0.1133</v>
       </c>
       <c r="C80" t="n">
         <v>2023</v>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0834</v>
+        <v>0.0756</v>
       </c>
       <c r="C81" t="n">
         <v>2023</v>
@@ -1335,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0727</v>
+        <v>0.0737</v>
       </c>
       <c r="C82" t="n">
         <v>2023</v>
@@ -1346,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0805</v>
+        <v>0.0825</v>
       </c>
       <c r="C83" t="n">
         <v>2023</v>
@@ -1357,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.0813</v>
       </c>
       <c r="C84" t="n">
         <v>2023</v>
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0604</v>
+        <v>0.0589</v>
       </c>
       <c r="C85" t="n">
         <v>2023</v>
@@ -1379,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0835</v>
+        <v>0.0834</v>
       </c>
       <c r="C86" t="n">
         <v>2023</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>0.091</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>2024</v>
@@ -1401,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1206</v>
+        <v>0.1198</v>
       </c>
       <c r="C88" t="n">
         <v>2024</v>
@@ -1412,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0961</v>
+        <v>0.0958</v>
       </c>
       <c r="C89" t="n">
         <v>2024</v>
@@ -1423,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1384</v>
+        <v>0.1375</v>
       </c>
       <c r="C90" t="n">
         <v>2024</v>
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1406</v>
+        <v>0.1395</v>
       </c>
       <c r="C91" t="n">
         <v>2024</v>
@@ -1445,7 +1445,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="n">
-        <v>0.112</v>
+        <v>0.1082</v>
       </c>
       <c r="C92" t="n">
         <v>2024</v>
@@ -1456,7 +1456,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0876</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>2024</v>
@@ -1467,7 +1467,7 @@
         <v>8</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.0927</v>
       </c>
       <c r="C94" t="n">
         <v>2024</v>
@@ -1478,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1224</v>
+        <v>0.1214</v>
       </c>
       <c r="C95" t="n">
         <v>2024</v>
